--- a/data/trans_bre/P54_A_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>19,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,18</t>
+          <t>18,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>30,22%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 18,87</t>
+          <t>-9,57; 28,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 24,34</t>
+          <t>-0,13; 40,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 33,31</t>
+          <t>-2,48; 38,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 102,14</t>
+          <t>-45,32; 390,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 41,2</t>
+          <t>-0,17; 85,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 60,35</t>
+          <t>-3,24; 81,69</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,43</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>-1,71%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 31,08</t>
+          <t>-17,17; 36,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 18,07</t>
+          <t>-13,83; 21,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 22,75</t>
+          <t>-19,28; 16,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 165,06</t>
+          <t>-34,76; 216,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 28,31</t>
+          <t>-15,16; 33,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 37,9</t>
+          <t>-23,05; 24,57</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>17,1%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 11,65</t>
+          <t>-9,67; 22,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 29,33</t>
+          <t>-10,9; 11,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 18,12</t>
+          <t>-0,03; 26,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 34,74</t>
+          <t>-21,04; 91,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 53,23</t>
+          <t>-12,13; 15,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 27,18</t>
+          <t>0,1; 43,55</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>-5,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 14,58</t>
+          <t>-12,34; 16,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 17,39</t>
+          <t>-17,16; 7,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 22,32</t>
+          <t>-0,63; 22,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 49,43</t>
+          <t>-26,89; 58,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 26,35</t>
+          <t>-19,76; 10,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 33,59</t>
+          <t>-0,62; 34,69</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>19,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,79</t>
+          <t>31,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>75,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>50,8%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 23,73</t>
+          <t>-1,42; 36,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 27,71</t>
+          <t>-7,27; 27,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,57; 39,68</t>
+          <t>17,49; 49,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 93,99</t>
+          <t>-4,75; 203,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 44,96</t>
+          <t>-8,13; 43,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,76; 72,65</t>
+          <t>23,72; 112,76</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>-7,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>8,92%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 20,63</t>
+          <t>-11,67; 32,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 5,27</t>
+          <t>-22,33; 9,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 22,39</t>
+          <t>-12,67; 23,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 61,72</t>
+          <t>-25,5; 149,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 6,5</t>
+          <t>-23,97; 11,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 33,29</t>
+          <t>-14,53; 35,63</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 11,66</t>
+          <t>1,38; 17,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 13,42</t>
+          <t>-4,01; 8,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,42; 18,14</t>
+          <t>5,92; 19,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 37,04</t>
+          <t>3,79; 65,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 19,67</t>
+          <t>-4,85; 11,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,26; 26,58</t>
+          <t>8,05; 29,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>19,62</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>67,73%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>30,12%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>30,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.2267654468443</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>19.63970755874861</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>18.61094810065083</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.6773106508255254</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.302102397506903</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2931886117229184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,57; 28,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 40,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 38,42</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-45,32; 390,88</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 85,78</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 81,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.574302286008338</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7962243560562561</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.61144355806906</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.453243494984968</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.007412542966597228</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.035315241188376</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.16149727771903</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>40.95968761694095</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>38.83515716794678</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>3.908759490432074</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.8717620048965317</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.8159647020324196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>46,51%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,17; 36,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,83; 21,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 16,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-34,76; 216,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-15,16; 33,1</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-23,05; 24,57</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.99623963195424</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.046290758014925</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.475022832735806</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4651042366172479</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.05160015184953788</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.01954904348831579</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>23,13%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.17454556664974</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.6198556941958</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-16.02076988394929</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3476419641709024</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1562428037080096</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1922519205851394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; 22,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 11,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 26,63</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-21,04; 91,05</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-12,13; 15,49</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 43,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>36.65320940702813</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.44254563877258</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.15316073345824</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>2.167561030834281</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3362623289908766</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2980907657466604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +775,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,62</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,82</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-5,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>14,55%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.967627765014074</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.25953474923164</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.28248890576698</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2312757290462919</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.02736208079762658</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1521676354336648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; 16,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; 7,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 22,75</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-26,89; 58,23</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-19,76; 10,25</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 34,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.666130569522654</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.734396928462049</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5727228984197479</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2104036832303963</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1121106530434144</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.005630996074393935</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.53661019040264</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.6037029984356</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>25.36729985935135</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.9105134326332518</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1982608150961497</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4165450535937816</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>19,44</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>31,75</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>75,51%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,68%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>50,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 36,57</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,27; 27,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17,49; 49,47</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 203,17</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; 43,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>23,72; 112,76</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.245536357935523</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.647323234503451</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>12.73259315978257</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.05768385186201606</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.02103975048885218</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1755357165832468</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,01</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-6,82</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>29,22%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-7,78%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.33667644684293</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-14.4885676338291</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.496631194964901</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2688982022019615</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1732265426136337</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.0200277704793814</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,67; 32,02</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-22,33; 9,12</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-12,67; 23,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-25,5; 149,76</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-23,97; 11,63</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-14,53; 35,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.96445601005211</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.70571253852994</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>26.17435644542228</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5823155703726816</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.162687370404767</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4263865214995482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +939,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12,91</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>31,77%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>18,16%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>19.44267826173548</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>6.710586557410791</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>32.73935832224376</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.7551319824885752</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.0836870109642112</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.5299362176079787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 17,9</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 8,58</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 19,15</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 65,32</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 11,53</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>8,05; 29,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.424338853796662</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.046940293793782</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>18.45044372632772</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.04749416600704936</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.07913935721002525</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.2625716962238068</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>36.57315774630492</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>28.50017112293194</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>50.97175559772248</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2.031738550229331</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.466823805742503</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1.156633352355287</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>10.00840958281199</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-7.357234251074041</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>5.829864109695548</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.2921834943400838</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.08306332236632355</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.07557895782898041</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-11.67201066643996</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-22.30967929646059</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-14.8489105021183</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.2549645287748207</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.246969753380772</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.1685031068257944</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>32.01554309263146</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>7.810874513570873</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>22.94272617276485</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.497563885216655</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.09831954210667525</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.3464084594315458</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>9.961709977665251</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.297909245638264</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>13.63430806027226</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.3177338397152713</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.04165682366091947</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1928395851049983</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1.383208781201565</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.649287482527849</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>6.32215452385017</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.03785040282495218</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.03184201121930544</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.08512330753020129</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>17.89742381631445</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.892889313189981</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>20.07782892802442</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.6531874534626834</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1318143142005743</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.3080615353870071</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1184,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
